--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_27.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1552712.640335409</v>
+        <v>1526276.085025458</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797656</v>
+        <v>14829673.35797655</v>
       </c>
     </row>
     <row r="9">
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>205.5178444382804</v>
+        <v>199.4261177940757</v>
       </c>
       <c r="G2" t="n">
-        <v>21.16030022554292</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,19 +738,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>107.6604638568036</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>120.9829232450785</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>37.10634673358873</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>205.5178444382804</v>
+        <v>202.540771266909</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>158.841334124391</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,13 +911,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>54.97933811727043</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -990,13 +990,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>109.9129409668012</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1069,40 +1069,40 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1130,59 +1130,59 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>169.0708280266249</v>
+      </c>
+      <c r="G8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G8" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>155.7266806515576</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,28 +1257,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>86.21539897205298</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
-        <v>8.590354951141759</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1370,7 +1370,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>181.0201173812374</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y11" t="n">
         <v>205.5178444382804</v>
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>130.6081453182354</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>39.7625520093063</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1509,13 +1509,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="13">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>14.83685490770588</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -1567,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1625,10 +1625,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
-        <v>169.0708280266249</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1683,31 +1683,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>7.692106705274854</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1743,16 +1743,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>14.48693373137006</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1920,13 +1920,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>74.21245223256827</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1986,10 +1986,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>26.73602332113069</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2041,13 +2041,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2081,25 +2081,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>190.3453970742848</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H20" t="n">
-        <v>230.8744955960827</v>
-      </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="21">
@@ -2160,25 +2160,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>146.1932996118735</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2214,16 +2214,16 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>123.3682322779029</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>234.288905720311</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2378,10 +2378,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8288647492796855</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -2406,10 +2406,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>174.6530184069498</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2515,16 +2515,16 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>22.0339917726842</v>
       </c>
       <c r="S25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2555,25 +2555,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -2609,16 +2609,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2640,19 +2640,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>12.90925672556489</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2688,16 +2688,16 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>204.7452777895381</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2710,58 +2710,58 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2807,10 +2807,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>81.0053776549329</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -2837,16 +2837,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="30">
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2880,16 +2880,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>89.93914640865493</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>108.8679248300178</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -2928,13 +2928,13 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3010,13 +3010,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,23 +3026,23 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>222.3396163656985</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3108,16 +3108,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3126,10 +3126,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>93.15020580927217</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>36.43923176655766</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
         <v>241.0142888776591</v>
@@ -3345,19 +3345,19 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>77.46860910239674</v>
       </c>
       <c r="D36" t="n">
-        <v>48.48316818328725</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3402,10 +3402,10 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3481,13 +3481,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,19 +3500,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3521,10 +3521,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>241.0142888776591</v>
@@ -3585,10 +3585,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>22.94564009780204</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3600,10 +3600,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>36.43923176655766</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3803,10 +3803,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3831,16 +3831,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>42.93000889176893</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3867,10 +3867,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>81.13095251577728</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3879,10 +3879,10 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.5178444382804</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3983,52 +3983,52 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>205.5178444382804</v>
@@ -4037,13 +4037,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>159.0801288120801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,13 +4053,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>106.9471343381643</v>
+        <v>107.0227426068962</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4122,7 +4122,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="46">
@@ -4186,10 +4186,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>453.0030327087026</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="C2" t="n">
-        <v>453.0030327087026</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="D2" t="n">
-        <v>453.0030327087026</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="E2" t="n">
         <v>245.4092504478133</v>
       </c>
       <c r="F2" t="n">
-        <v>37.81546818692397</v>
+        <v>43.96872742349432</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
@@ -4340,7 +4340,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O2" t="n">
         <v>732.4113224610707</v>
@@ -4355,25 +4355,25 @@
         <v>660.5968149695918</v>
       </c>
       <c r="S2" t="n">
-        <v>660.5968149695918</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T2" t="n">
-        <v>660.5968149695918</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U2" t="n">
-        <v>660.5968149695918</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V2" t="n">
-        <v>660.5968149695918</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W2" t="n">
-        <v>660.5968149695918</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X2" t="n">
         <v>453.0030327087026</v>
       </c>
       <c r="Y2" t="n">
-        <v>453.0030327087026</v>
+        <v>245.4092504478133</v>
       </c>
     </row>
     <row r="3">
@@ -4386,25 +4386,25 @@
         <v>547.4845037566762</v>
       </c>
       <c r="C3" t="n">
-        <v>547.4845037566762</v>
+        <v>438.7365604669756</v>
       </c>
       <c r="D3" t="n">
-        <v>398.5500940954249</v>
+        <v>289.8021508057243</v>
       </c>
       <c r="E3" t="n">
-        <v>398.5500940954249</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="F3" t="n">
-        <v>252.0155361223099</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="G3" t="n">
-        <v>129.8105631474831</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
@@ -4413,19 +4413,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>16.44142755506243</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M3" t="n">
-        <v>163.1080096386462</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="J4" t="n">
         <v>16.44142755506243</v>
@@ -4507,31 +4507,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.19242108896862</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="R4" t="n">
-        <v>16.44142755506243</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="S4" t="n">
-        <v>16.44142755506243</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="T4" t="n">
-        <v>16.44142755506243</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="U4" t="n">
-        <v>16.44142755506243</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="V4" t="n">
-        <v>16.44142755506243</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="W4" t="n">
-        <v>16.44142755506243</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="X4" t="n">
-        <v>16.44142755506243</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.44142755506243</v>
+        <v>110.7436296931158</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>614.4775954922324</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="C5" t="n">
-        <v>614.4775954922324</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="D5" t="n">
-        <v>406.8838132313431</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="E5" t="n">
-        <v>246.4380211865037</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="F5" t="n">
-        <v>239.4925204373003</v>
+        <v>251.5625096843836</v>
       </c>
       <c r="G5" t="n">
-        <v>224.0352098159517</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H5" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J5" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>85.87524403801982</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L5" t="n">
-        <v>265.9510956226784</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M5" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N5" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O5" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
@@ -4589,28 +4589,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="X5" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="Y5" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
     </row>
     <row r="6">
@@ -4626,22 +4626,22 @@
         <v>720.9018483060073</v>
       </c>
       <c r="D6" t="n">
-        <v>665.3671633390675</v>
+        <v>571.967438644756</v>
       </c>
       <c r="E6" t="n">
-        <v>506.1297083336119</v>
+        <v>412.7299836393005</v>
       </c>
       <c r="F6" t="n">
-        <v>359.5951503604969</v>
+        <v>266.1954256661855</v>
       </c>
       <c r="G6" t="n">
-        <v>220.8643249431123</v>
+        <v>127.464600248801</v>
       </c>
       <c r="H6" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4650,16 +4650,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M6" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N6" t="n">
-        <v>549.2141532458947</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O6" t="n">
-        <v>752.6768192397923</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P6" t="n">
         <v>752.6768192397923</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
         <v>16.44142755506243</v>
@@ -4750,25 +4750,25 @@
         <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>447.0863026981896</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C8" t="n">
-        <v>447.0863026981896</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D8" t="n">
-        <v>447.0863026981896</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E8" t="n">
-        <v>239.4925204373003</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="F8" t="n">
-        <v>31.89873817641097</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M8" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N8" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O8" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S8" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T8" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U8" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V8" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W8" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X8" t="n">
-        <v>654.6800849590788</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y8" t="n">
-        <v>654.6800849590788</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
@@ -4890,43 +4890,43 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N9" t="n">
-        <v>752.1869855945927</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O9" t="n">
-        <v>752.6768192397923</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>648.6540332037905</v>
+        <v>633.815586718075</v>
       </c>
       <c r="T9" t="n">
-        <v>648.6540332037905</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U9" t="n">
-        <v>648.6540332037905</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V9" t="n">
-        <v>639.976906990516</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W9" t="n">
-        <v>432.3831247296267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X9" t="n">
-        <v>224.7893424687375</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="10">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C11" t="n">
         <v>16.44142755506243</v>
@@ -5042,19 +5042,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>196.517279139721</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M11" t="n">
-        <v>399.9799451336186</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
-        <v>603.4426111275161</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
-        <v>752.6375612701642</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
@@ -5081,10 +5081,10 @@
         <v>639.2227743377304</v>
       </c>
       <c r="X11" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y11" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>614.4775954922324</v>
+        <v>238.668476211275</v>
       </c>
       <c r="C12" t="n">
-        <v>614.4775954922324</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="D12" t="n">
-        <v>614.4775954922324</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="E12" t="n">
-        <v>455.2401404867769</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="F12" t="n">
-        <v>308.7055825136619</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="G12" t="n">
-        <v>169.9747570962774</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="H12" t="n">
-        <v>56.60562150385668</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I12" t="n">
         <v>16.44142755506243</v>
@@ -5121,22 +5121,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>141.7989876128999</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M12" t="n">
-        <v>232.5025681519757</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N12" t="n">
-        <v>435.9652341458732</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O12" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5157,13 +5157,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W12" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X12" t="n">
         <v>614.4775954922324</v>
       </c>
       <c r="Y12" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="I13" t="n">
         <v>133.2380658808762</v>
@@ -5215,34 +5215,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="14">
@@ -5273,7 +5273,7 @@
         <v>199.2900309704538</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
@@ -5282,10 +5282,10 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
         <v>583.2163723184226</v>
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C15" t="n">
-        <v>16.44142755506243</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="D15" t="n">
-        <v>16.44142755506243</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="E15" t="n">
-        <v>16.44142755506243</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F15" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G15" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H15" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>141.7989876128999</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="M15" t="n">
         <v>232.5025681519757</v>
@@ -5391,16 +5391,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>807.4381113577983</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
-        <v>599.8443290969091</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X15" t="n">
-        <v>392.2505468360198</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y15" t="n">
-        <v>184.6567645751305</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="16">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>729.290772582924</v>
+        <v>787.9255531013317</v>
       </c>
       <c r="C18" t="n">
-        <v>554.837743301797</v>
+        <v>613.4725238202047</v>
       </c>
       <c r="D18" t="n">
-        <v>554.837743301797</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="E18" t="n">
-        <v>395.6002882963414</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F18" t="n">
-        <v>249.0657303232264</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G18" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5601,10 +5601,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N18" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
         <v>781.4136778972854</v>
@@ -5616,28 +5616,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X18" t="n">
-        <v>937.051071347878</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y18" t="n">
-        <v>729.290772582924</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="19">
@@ -5689,22 +5689,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
         <v>19.28114311021272</v>
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C20" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D20" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E20" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F20" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G20" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H20" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
         <v>31.35113235729608</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y20" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>964.0571555106362</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C21" t="n">
-        <v>816.3871559026832</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D21" t="n">
-        <v>667.4527462414319</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5832,13 +5832,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
         <v>542.809531908403</v>
@@ -5862,19 +5862,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>964.0571555106362</v>
+        <v>376.0670529769968</v>
       </c>
       <c r="X21" t="n">
-        <v>964.0571555106362</v>
+        <v>168.215552771464</v>
       </c>
       <c r="Y21" t="n">
-        <v>964.0571555106362</v>
+        <v>168.215552771464</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>499.3853800778592</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C23" t="n">
-        <v>499.3853800778592</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6014,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>742.8341567219593</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U23" t="n">
-        <v>742.8341567219593</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V23" t="n">
-        <v>742.8341567219593</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W23" t="n">
-        <v>499.3853800778592</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X23" t="n">
-        <v>499.3853800778592</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y23" t="n">
-        <v>499.3853800778592</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>454.3181732824481</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C24" t="n">
-        <v>453.4809361619635</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D24" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6069,49 +6069,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>689.4702815141908</v>
+        <v>787.6399652005859</v>
       </c>
       <c r="U24" t="n">
-        <v>689.4702815141908</v>
+        <v>787.6399652005859</v>
       </c>
       <c r="V24" t="n">
-        <v>454.3181732824481</v>
+        <v>787.6399652005859</v>
       </c>
       <c r="W24" t="n">
-        <v>454.3181732824481</v>
+        <v>544.1911885564859</v>
       </c>
       <c r="X24" t="n">
-        <v>454.3181732824481</v>
+        <v>544.1911885564859</v>
       </c>
       <c r="Y24" t="n">
-        <v>454.3181732824481</v>
+        <v>336.430889791532</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>852.019301208126</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C26" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D26" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E26" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F26" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G26" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
         <v>31.35113235729608</v>
@@ -6257,19 +6257,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
         <v>720.6083788665362</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y26" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>521.2549444941228</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>521.2549444941228</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>521.2549444941228</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6312,7 +6312,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
         <v>725.4530095217538</v>
@@ -6336,19 +6336,19 @@
         <v>689.4702815141908</v>
       </c>
       <c r="U27" t="n">
-        <v>689.4702815141908</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V27" t="n">
-        <v>689.4702815141908</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="W27" t="n">
-        <v>689.4702815141908</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="X27" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6409,25 +6409,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>569.2254314512334</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C29" t="n">
-        <v>569.2254314512334</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D29" t="n">
-        <v>325.7766548071333</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E29" t="n">
-        <v>325.7766548071333</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F29" t="n">
-        <v>325.7766548071333</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G29" t="n">
-        <v>325.7766548071333</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
         <v>31.35113235729608</v>
@@ -6485,28 +6485,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>812.6742080953335</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="T29" t="n">
-        <v>812.6742080953335</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U29" t="n">
-        <v>812.6742080953335</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V29" t="n">
-        <v>812.6742080953335</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W29" t="n">
-        <v>812.6742080953335</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X29" t="n">
-        <v>812.6742080953335</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y29" t="n">
-        <v>812.6742080953335</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>627.7355178317791</v>
+        <v>243.3720121938209</v>
       </c>
       <c r="C30" t="n">
-        <v>453.2824885506521</v>
+        <v>243.3720121938209</v>
       </c>
       <c r="D30" t="n">
-        <v>453.2824885506521</v>
+        <v>243.3720121938209</v>
       </c>
       <c r="E30" t="n">
-        <v>453.2824885506521</v>
+        <v>243.3720121938209</v>
       </c>
       <c r="F30" t="n">
-        <v>362.4348659156472</v>
+        <v>243.3720121938209</v>
       </c>
       <c r="G30" t="n">
-        <v>223.7040404982626</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
         <v>20.03527576299844</v>
@@ -6549,10 +6549,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O30" t="n">
         <v>781.4136778972854</v>
@@ -6576,16 +6576,16 @@
         <v>862.8876260635219</v>
       </c>
       <c r="V30" t="n">
-        <v>627.7355178317791</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W30" t="n">
-        <v>627.7355178317791</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X30" t="n">
-        <v>627.7355178317791</v>
+        <v>411.587349213889</v>
       </c>
       <c r="Y30" t="n">
-        <v>627.7355178317791</v>
+        <v>411.587349213889</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6725,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>518.2486856454962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>518.2486856454962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>274.7999090013961</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W32" t="n">
-        <v>274.7999090013961</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X32" t="n">
-        <v>274.7999090013961</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y32" t="n">
-        <v>274.7999090013961</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>343.4227147053767</v>
+        <v>256.1153302261713</v>
       </c>
       <c r="C33" t="n">
-        <v>168.9696854242497</v>
+        <v>256.1153302261713</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>256.1153302261713</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>256.1153302261713</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6783,19 +6783,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6807,22 +6807,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>667.7794438903394</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>667.7794438903394</v>
       </c>
       <c r="W33" t="n">
-        <v>927.2498506959315</v>
+        <v>424.3306672462393</v>
       </c>
       <c r="X33" t="n">
-        <v>719.3983504903987</v>
+        <v>424.3306672462393</v>
       </c>
       <c r="Y33" t="n">
-        <v>511.6380517254448</v>
+        <v>424.3306672462393</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6977,10 +6977,10 @@
         <v>720.6083788665362</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y35" t="n">
-        <v>477.1596022224361</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>512.7568786610034</v>
+        <v>246.4666730769152</v>
       </c>
       <c r="C36" t="n">
-        <v>512.7568786610034</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D36" t="n">
-        <v>463.7839815061678</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
         <v>19.28114311021272</v>
@@ -7017,49 +7017,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>304.2053859195205</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N36" t="n">
-        <v>781.4136778972854</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W36" t="n">
-        <v>720.6083788665362</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="X36" t="n">
-        <v>512.7568786610034</v>
+        <v>246.4666730769152</v>
       </c>
       <c r="Y36" t="n">
-        <v>512.7568786610034</v>
+        <v>246.4666730769152</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>467.067986854209</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W38" t="n">
-        <v>467.067986854209</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X38" t="n">
-        <v>467.067986854209</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y38" t="n">
-        <v>467.067986854209</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>343.4227147053767</v>
+        <v>466.4486707798429</v>
       </c>
       <c r="C39" t="n">
-        <v>168.9696854242497</v>
+        <v>291.9956414987158</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>268.8182272585117</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7257,10 +7257,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7275,28 +7275,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W39" t="n">
-        <v>927.2498506959315</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="X39" t="n">
-        <v>719.3983504903987</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="Y39" t="n">
-        <v>511.6380517254448</v>
+        <v>634.6640077999109</v>
       </c>
     </row>
     <row r="40">
@@ -7354,7 +7354,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S40" t="n">
         <v>829.5248650203655</v>
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>199.2900309704538</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="C41" t="n">
-        <v>199.2900309704538</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="D41" t="n">
-        <v>199.2900309704538</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="E41" t="n">
-        <v>199.2900309704538</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="F41" t="n">
-        <v>199.2900309704538</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
@@ -7436,25 +7436,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="U41" t="n">
-        <v>822.0713777531216</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="V41" t="n">
-        <v>822.0713777531216</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="W41" t="n">
-        <v>614.4775954922324</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="X41" t="n">
-        <v>406.8838132313431</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="Y41" t="n">
-        <v>199.2900309704538</v>
+        <v>28.51141680214578</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7464,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>199.2900309704538</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C42" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
-        <v>60.55920555306929</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J42" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2616536067974</v>
+        <v>142.2888212580996</v>
       </c>
       <c r="M42" t="n">
-        <v>435.9652341458732</v>
+        <v>345.7514872519972</v>
       </c>
       <c r="N42" t="n">
-        <v>639.4279001397708</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O42" t="n">
-        <v>639.4279001397708</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7515,25 +7515,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="X42" t="n">
-        <v>406.8838132313431</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="Y42" t="n">
-        <v>199.2900309704538</v>
+        <v>359.1097938562575</v>
       </c>
     </row>
     <row r="43">
@@ -7594,25 +7594,25 @@
         <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>236.1051990630351</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C44" t="n">
-        <v>236.1051990630351</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D44" t="n">
-        <v>236.1051990630351</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E44" t="n">
-        <v>236.1051990630351</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F44" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>399.9799451336186</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
-        <v>603.4426111275161</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U44" t="n">
-        <v>604.3859801240053</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="V44" t="n">
-        <v>604.3859801240053</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W44" t="n">
-        <v>396.792197863116</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X44" t="n">
-        <v>396.792197863116</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y44" t="n">
-        <v>236.1051990630351</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>412.2910008509983</v>
+        <v>238.668476211275</v>
       </c>
       <c r="C45" t="n">
-        <v>237.8379715698713</v>
+        <v>238.668476211275</v>
       </c>
       <c r="D45" t="n">
-        <v>129.8105631474831</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="E45" t="n">
-        <v>129.8105631474831</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="F45" t="n">
-        <v>129.8105631474831</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="G45" t="n">
-        <v>129.8105631474831</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
@@ -7734,10 +7734,10 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N45" t="n">
-        <v>639.4279001397708</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O45" t="n">
         <v>639.4279001397708</v>
@@ -7755,22 +7755,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V45" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W45" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X45" t="n">
-        <v>412.2910008509983</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y45" t="n">
-        <v>412.2910008509983</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="46">
@@ -7834,7 +7834,7 @@
         <v>150.9737180453332</v>
       </c>
       <c r="T46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U46" t="n">
         <v>16.44142755506243</v>
@@ -7988,10 +7988,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8061,22 +8061,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>155.3219763666824</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,10 +8216,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>290.2250192095839</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
@@ -8231,7 +8231,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,19 +8298,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>160.0786444523452</v>
       </c>
       <c r="M6" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>131.836493543131</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8453,13 +8453,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M8" t="n">
-        <v>401.9436843039723</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
@@ -8468,7 +8468,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8538,19 +8538,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>143.091025904242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,10 +8690,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M11" t="n">
         <v>435.8640776655532</v>
@@ -8705,7 +8705,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>301.368163919873</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,25 +8769,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>279.489774794024</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8930,13 +8930,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9006,13 +9006,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>151.2801117021122</v>
       </c>
       <c r="M15" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
         <v>336.8595565216137</v>
@@ -9249,13 +9249,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N18" t="n">
-        <v>301.2485028631349</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9480,16 +9480,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>301.248502863135</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9717,16 +9717,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9960,10 +9960,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N27" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10197,13 +10197,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10431,13 +10431,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>231.1529892133073</v>
+        <v>292.5201795090609</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>299.7328472056018</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10677,13 +10677,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,13 +10905,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>303.312501347746</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>265.6729592778915</v>
       </c>
       <c r="M42" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11309,10 +11309,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
-        <v>360.3696370111358</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11382,13 +11382,13 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>234.2160227667432</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23258,7 +23258,7 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23321,7 +23321,7 @@
         <v>168.2208513361757</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
         <v>180.7200942177732</v>
@@ -23334,28 +23334,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>42.10035367008032</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>49.63408084210877</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23397,13 +23397,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="13">
@@ -23434,7 +23434,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23455,7 +23455,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
@@ -23513,10 +23513,10 @@
         <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
-        <v>41.40506154378102</v>
+        <v>29.45577218916847</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23571,31 +23571,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>165.0163922830409</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23631,16 +23631,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>218.3136534180552</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23808,13 +23808,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>92.32073141729907</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23829,7 +23829,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,7 +23856,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23874,10 +23874,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>179.0369618823468</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23929,13 +23929,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23947,7 +23947,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23969,25 +23969,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>174.9274946967228</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>108.6003065196844</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24048,25 +24048,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>26.51519937644221</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24102,16 +24102,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>128.3267508830167</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>34.05985351325984</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24203,16 +24203,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>120.394135900372</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>161.7172443298368</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24221,7 +24221,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24254,10 +24254,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24266,10 +24266,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,10 +24282,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>171.8796342390361</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24294,10 +24294,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>25.51171028787184</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24388,7 +24388,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24403,16 +24403,16 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044853</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24443,25 +24443,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>164.936795482178</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24497,16 +24497,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24528,19 +24528,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>144.7358237298361</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24576,16 +24576,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>1.027707413939339</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24649,7 +24649,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24683,7 +24683,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24695,10 +24695,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>258.4694244608343</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,16 +24725,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>8.68397329741569</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24756,10 +24756,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24768,16 +24768,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>55.13006598472894</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>28.47559233319285</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24816,13 +24816,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24898,13 +24898,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,13 +24914,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24929,7 +24929,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24938,7 +24938,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24965,25 +24965,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0.7562331984328523</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24996,16 +24996,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25014,10 +25014,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25047,22 +25047,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>132.7911762717027</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>215.2557513943619</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25084,7 +25084,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G34" t="n">
         <v>167.9909793584588</v>
@@ -25114,7 +25114,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
         <v>86.16204325169439</v>
@@ -25135,7 +25135,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>156.0574714863295</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,13 +25151,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25166,7 +25166,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25217,7 +25217,7 @@
         <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>145.2236497783945</v>
@@ -25233,19 +25233,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>95.239889885919</v>
       </c>
       <c r="D36" t="n">
-        <v>98.96189738135151</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25278,10 +25278,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25290,10 +25290,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25369,13 +25369,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25388,19 +25388,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25409,10 +25409,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25445,7 +25445,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>86.73796959247585</v>
@@ -25473,10 +25473,10 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>124.4994254668367</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25488,10 +25488,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,7 +25515,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25524,19 +25524,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>215.2557513943619</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25594,10 +25594,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S40" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25640,7 +25640,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>234.2826201338976</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25649,7 +25649,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25676,13 +25676,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>39.94924155962048</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25691,10 +25691,10 @@
         <v>143.7231242791326</v>
       </c>
       <c r="X41" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,10 +25704,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25719,16 +25719,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>69.30543534472753</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25755,10 +25755,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>119.0337761790443</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25767,10 +25767,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0.1648513390239543</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25834,7 +25834,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25871,22 +25871,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>225.855928360474</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,7 +25907,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25916,7 +25916,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U44" t="n">
         <v>45.82780846955609</v>
@@ -25925,13 +25925,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>227.1578098439735</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,13 +25941,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>40.49793122647442</v>
+        <v>40.42232295774259</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25965,7 +25965,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25995,7 +25995,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
@@ -26010,7 +26010,7 @@
         <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="46">
@@ -26074,10 +26074,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355056.7224626888</v>
+        <v>355056.7224626887</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>373980.6030856418</v>
+        <v>373980.6030856417</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>373980.6030856417</v>
+        <v>373980.6030856419</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>373980.6030856418</v>
+        <v>373980.6030856417</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>355056.7224626889</v>
+        <v>355056.7224626888</v>
       </c>
     </row>
     <row r="16">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
         <v>212972.8164771577</v>
@@ -26329,25 +26329,25 @@
         <v>224316.9079172987</v>
       </c>
       <c r="H2" t="n">
+        <v>224316.9079172986</v>
+      </c>
+      <c r="I2" t="n">
+        <v>224316.9079172986</v>
+      </c>
+      <c r="J2" t="n">
         <v>224316.9079172987</v>
-      </c>
-      <c r="I2" t="n">
-        <v>224316.9079172987</v>
-      </c>
-      <c r="J2" t="n">
-        <v>224316.9079172988</v>
       </c>
       <c r="K2" t="n">
         <v>224316.9079172987</v>
       </c>
       <c r="L2" t="n">
+        <v>224316.9079172986</v>
+      </c>
+      <c r="M2" t="n">
         <v>224316.9079172987</v>
       </c>
-      <c r="M2" t="n">
-        <v>224316.9079172986</v>
-      </c>
       <c r="N2" t="n">
-        <v>224316.9079172986</v>
+        <v>224316.9079172987</v>
       </c>
       <c r="O2" t="n">
         <v>212972.8164771577</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>301482.3383053389</v>
+        <v>304569.4782239668</v>
       </c>
       <c r="C4" t="n">
-        <v>301482.3383053389</v>
+        <v>304569.4782239669</v>
       </c>
       <c r="D4" t="n">
-        <v>301482.3383053389</v>
+        <v>304569.4782239668</v>
       </c>
       <c r="E4" t="n">
-        <v>12944.46415789076</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="F4" t="n">
-        <v>12944.46415789077</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="G4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>12944.46415789076</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="P4" t="n">
-        <v>12944.46415789077</v>
+        <v>16031.60407651876</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>137724.0148295154</v>
+        <v>134636.8749108871</v>
       </c>
       <c r="C6" t="n">
-        <v>206597.771411205</v>
+        <v>203510.6314925771</v>
       </c>
       <c r="D6" t="n">
-        <v>206597.771411205</v>
+        <v>203510.6314925772</v>
       </c>
       <c r="E6" t="n">
-        <v>187532.8673774195</v>
+        <v>184445.7274587915</v>
       </c>
       <c r="F6" t="n">
-        <v>187532.8673774195</v>
+        <v>184445.7274587915</v>
       </c>
       <c r="G6" t="n">
-        <v>186273.3449799925</v>
+        <v>183019.5065383891</v>
       </c>
       <c r="H6" t="n">
-        <v>196002.3879541596</v>
+        <v>192748.5495125561</v>
       </c>
       <c r="I6" t="n">
-        <v>196002.3879541596</v>
+        <v>192748.5495125561</v>
       </c>
       <c r="J6" t="n">
-        <v>142229.8770639502</v>
+        <v>138976.0386223468</v>
       </c>
       <c r="K6" t="n">
-        <v>196002.3879541596</v>
+        <v>192748.5495125562</v>
       </c>
       <c r="L6" t="n">
-        <v>196002.3879541596</v>
+        <v>192748.5495125561</v>
       </c>
       <c r="M6" t="n">
-        <v>196002.3879541595</v>
+        <v>192748.5495125562</v>
       </c>
       <c r="N6" t="n">
-        <v>196002.3879541595</v>
+        <v>192748.5495125562</v>
       </c>
       <c r="O6" t="n">
-        <v>187532.8673774195</v>
+        <v>184445.7274587915</v>
       </c>
       <c r="P6" t="n">
-        <v>187532.8673774195</v>
+        <v>184445.7274587915</v>
       </c>
     </row>
   </sheetData>
@@ -27385,13 +27385,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>201.358201303431</v>
+        <v>207.4499279476357</v>
       </c>
       <c r="G2" t="n">
-        <v>394.1424372895921</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27400,7 +27400,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -27458,19 +27458,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>65.04803513151212</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>16.36059391813211</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27479,7 +27479,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>49.05569651810566</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>177.2159972252002</v>
+        <v>180.1930703965715</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>223.0890359478708</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,13 +27631,13 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27698,7 +27698,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>92.46572744736832</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27710,13 +27710,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2.322503269695247</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -27822,7 +27822,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E8" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>201.358201303431</v>
+        <v>237.8052177150865</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27874,7 +27874,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,13 +27895,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>214.0044200269115</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27953,7 +27953,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,28 +27977,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>85.46777213178484</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
-        <v>224.2102321982835</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -34708,10 +34708,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34781,22 +34781,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,10 +34936,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>70.13516816460341</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
@@ -34951,7 +34951,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="M6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4947814597977008</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35173,13 +35173,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M8" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
@@ -35188,7 +35188,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35258,19 +35258,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>0.494781459797586</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,10 +35410,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M11" t="n">
         <v>205.5178444382804</v>
@@ -35425,7 +35425,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>70.1351681646035</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35650,13 +35650,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35726,13 +35726,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="M15" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
         <v>205.5178444382804</v>
@@ -35969,13 +35969,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N18" t="n">
-        <v>169.9067907798016</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9067907798017</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36455,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36680,10 +36680,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N27" t="n">
-        <v>240.0046611659691</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36917,13 +36917,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37151,13 +37151,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>99.81127712997396</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37166,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,10 +37385,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37397,13 +37397,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,13 +37625,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
+        <v>127.1185794980173</v>
+      </c>
+      <c r="M42" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M42" t="n">
-        <v>91.61977832229879</v>
       </c>
       <c r="N42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
@@ -38029,10 +38029,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
-        <v>130.2714255894491</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38102,13 +38102,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>91.61977832229879</v>
-      </c>
-      <c r="N45" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1526276.085025458</v>
+        <v>1528454.116211911</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1151840.918742178</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797655</v>
+        <v>14661612.74404855</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5782896.93747581</v>
+        <v>5836135.277844431</v>
       </c>
     </row>
     <row r="11">
@@ -668,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>199.4261177940757</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -701,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>19.88180868221617</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C3" t="n">
-        <v>107.6604638568036</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>47.13383555196375</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -801,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>37.10634673358873</v>
+        <v>23.44046883036203</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -877,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>202.540771266909</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -911,10 +913,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -941,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>205.5178444382804</v>
+        <v>178.157313031983</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -975,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -990,13 +992,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>109.9129409668012</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1057,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>24.7554325077908</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1078,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1136,25 +1138,25 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>169.0708280266249</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>205.5178444382804</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>118.0728405592477</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1233,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>86.21539897205298</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>205.5178444382804</v>
+        <v>151.27808017072</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1379,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1421,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>205.5178444382804</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1451,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>130.6081453182354</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1461,13 +1463,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>64.33804635206413</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1503,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1588,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1607,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1667,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1683,31 +1685,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>7.692106705274854</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1740,16 +1742,16 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>162.6080338315131</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1789,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1825,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1850,67 +1852,67 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
     </row>
     <row r="18">
@@ -1920,22 +1922,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>74.21245223256827</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1944,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>27.44407725673862</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1989,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2041,13 +2043,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>190.3453970742848</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>241.0142888776591</v>
@@ -2102,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2144,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>234.288905720311</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2163,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2205,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>203.3816115706753</v>
       </c>
       <c r="W21" t="n">
-        <v>123.3682322779029</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2239,52 +2241,52 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2315,17 +2317,17 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>220.2131257424249</v>
-      </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
@@ -2333,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,25 +2365,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2442,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>174.6530184069498</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2460,10 +2462,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>16.53524424398009</v>
       </c>
     </row>
     <row r="25">
@@ -2500,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2515,13 +2517,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>22.0339917726842</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2555,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2564,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2576,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2597,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2606,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2685,10 +2687,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2697,10 +2699,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>204.7452777895381</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>24.74894597221386</v>
       </c>
     </row>
     <row r="28">
@@ -2752,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2789,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2813,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2834,31 +2836,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2877,22 +2879,22 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>108.8679248300178</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2922,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2934,10 +2936,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>10.40493801491967</v>
       </c>
     </row>
     <row r="31">
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3010,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3041,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3071,13 +3073,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3089,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3105,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>120.2060159584285</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3117,16 +3119,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,25 +3155,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>93.15020580927217</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3196,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3229,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3311,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3329,10 +3331,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3345,13 +3347,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>77.46860910239674</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>64.67263725582607</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3396,19 +3398,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3478,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3500,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3521,10 +3523,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3563,13 +3565,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="39">
@@ -3579,16 +3581,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>22.94564009780204</v>
+        <v>84.8410341333234</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3600,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,13 +3632,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3645,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3743,13 +3745,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3761,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3785,22 +3787,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>205.5178444382804</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,22 +3818,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3867,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>81.13095251577728</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>142.0523914963076</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3882,10 +3884,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3916,13 +3918,13 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3974,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4028,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>205.5178444382804</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4040,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4056,28 +4058,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>31.16010504236965</v>
       </c>
       <c r="D45" t="n">
-        <v>107.0227426068962</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4116,13 +4118,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4186,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>245.4092504478133</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="C2" t="n">
-        <v>245.4092504478133</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="D2" t="n">
-        <v>245.4092504478133</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="E2" t="n">
-        <v>245.4092504478133</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="F2" t="n">
-        <v>43.96872742349432</v>
+        <v>85.86136179523773</v>
       </c>
       <c r="G2" t="n">
-        <v>28.51141680214578</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="H2" t="n">
-        <v>28.51141680214578</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="I2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>119.4564334659848</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N2" t="n">
-        <v>706.4576170384386</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P2" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>811.9797623848946</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R2" t="n">
-        <v>660.5968149695918</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S2" t="n">
-        <v>453.0030327087026</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="T2" t="n">
-        <v>453.0030327087026</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U2" t="n">
-        <v>453.0030327087026</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V2" t="n">
-        <v>453.0030327087026</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="W2" t="n">
-        <v>453.0030327087026</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="X2" t="n">
-        <v>453.0030327087026</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="Y2" t="n">
-        <v>245.4092504478133</v>
+        <v>139.9144214012476</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>547.4845037566762</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="C3" t="n">
-        <v>438.7365604669756</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="D3" t="n">
-        <v>289.8021508057243</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="E3" t="n">
-        <v>130.5646958002688</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="F3" t="n">
-        <v>130.5646958002688</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="G3" t="n">
-        <v>130.5646958002688</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="H3" t="n">
-        <v>17.19556020784815</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I3" t="n">
-        <v>17.19556020784815</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J3" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
-        <v>219.90409354896</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M3" t="n">
-        <v>423.3667595428576</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N3" t="n">
-        <v>626.8294255367553</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O3" t="n">
-        <v>639.4279001397708</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="Q3" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>547.4845037566762</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T3" t="n">
-        <v>547.4845037566762</v>
+        <v>214.050116039799</v>
       </c>
       <c r="U3" t="n">
-        <v>547.4845037566762</v>
+        <v>214.050116039799</v>
       </c>
       <c r="V3" t="n">
-        <v>547.4845037566762</v>
+        <v>214.050116039799</v>
       </c>
       <c r="W3" t="n">
-        <v>547.4845037566762</v>
+        <v>214.050116039799</v>
       </c>
       <c r="X3" t="n">
-        <v>547.4845037566762</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="Y3" t="n">
-        <v>547.4845037566762</v>
+        <v>159.9970564337892</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>110.7436296931158</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="C4" t="n">
-        <v>110.7436296931158</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="D4" t="n">
-        <v>110.7436296931158</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E4" t="n">
-        <v>110.7436296931158</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F4" t="n">
-        <v>110.7436296931158</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G4" t="n">
-        <v>110.7436296931158</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H4" t="n">
-        <v>110.7436296931158</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I4" t="n">
-        <v>110.7436296931158</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L4" t="n">
-        <v>43.75555256277541</v>
+        <v>31.59512732850896</v>
       </c>
       <c r="M4" t="n">
-        <v>82.94359075499759</v>
+        <v>70.78316552073113</v>
       </c>
       <c r="N4" t="n">
-        <v>126.6344414104339</v>
+        <v>114.4740161761674</v>
       </c>
       <c r="O4" t="n">
-        <v>150.9737180453332</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="Q4" t="n">
-        <v>110.7436296931158</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="R4" t="n">
-        <v>110.7436296931158</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="S4" t="n">
-        <v>110.7436296931158</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="T4" t="n">
-        <v>110.7436296931158</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="U4" t="n">
-        <v>110.7436296931158</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="V4" t="n">
-        <v>110.7436296931158</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="W4" t="n">
-        <v>110.7436296931158</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="X4" t="n">
-        <v>110.7436296931158</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="Y4" t="n">
-        <v>110.7436296931158</v>
+        <v>4.28100232079598</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>258.5080104335871</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="C5" t="n">
-        <v>258.5080104335871</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="D5" t="n">
-        <v>258.5080104335871</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="E5" t="n">
-        <v>258.5080104335871</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="F5" t="n">
-        <v>251.5625096843836</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="G5" t="n">
-        <v>236.1051990630351</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H5" t="n">
-        <v>236.1051990630351</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>28.51141680214578</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>16.44142755506243</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>176.2910403306274</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>670.6884303378189</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>463.0946480769296</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="T5" t="n">
-        <v>463.0946480769296</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="U5" t="n">
-        <v>463.0946480769296</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="V5" t="n">
-        <v>463.0946480769296</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="W5" t="n">
-        <v>463.0946480769296</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="X5" t="n">
-        <v>463.0946480769296</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="Y5" t="n">
-        <v>463.0946480769296</v>
+        <v>540.6514970160482</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C6" t="n">
-        <v>720.9018483060073</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D6" t="n">
-        <v>571.967438644756</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>412.7299836393005</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>266.1954256661855</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>127.464600248801</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>163.1080096386462</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>366.5706756325438</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.44142755506243</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="C7" t="n">
-        <v>16.44142755506243</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="D7" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S7" t="n">
-        <v>16.44142755506243</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T7" t="n">
-        <v>16.44142755506243</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U7" t="n">
-        <v>16.44142755506243</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V7" t="n">
-        <v>16.44142755506243</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W7" t="n">
-        <v>16.44142755506243</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X7" t="n">
-        <v>16.44142755506243</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.44142755506243</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>614.4775954922324</v>
+        <v>482.2773291604919</v>
       </c>
       <c r="C8" t="n">
-        <v>614.4775954922324</v>
+        <v>482.2773291604919</v>
       </c>
       <c r="D8" t="n">
-        <v>406.8838132313431</v>
+        <v>482.2773291604919</v>
       </c>
       <c r="E8" t="n">
-        <v>406.8838132313431</v>
+        <v>482.2773291604919</v>
       </c>
       <c r="F8" t="n">
-        <v>236.1051990630351</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G8" t="n">
-        <v>28.51141680214578</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H8" t="n">
-        <v>28.51141680214578</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I8" t="n">
-        <v>28.51141680214578</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>16.44142755506243</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>176.2910403306274</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>614.4775954922324</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T8" t="n">
-        <v>614.4775954922324</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U8" t="n">
-        <v>614.4775954922324</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V8" t="n">
-        <v>614.4775954922324</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W8" t="n">
-        <v>614.4775954922324</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X8" t="n">
-        <v>614.4775954922324</v>
+        <v>482.2773291604919</v>
       </c>
       <c r="Y8" t="n">
-        <v>614.4775954922324</v>
+        <v>482.2773291604919</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>345.2616536067974</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>435.9652341458732</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>639.4279001397708</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>633.815586718075</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>431.628992076841</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U9" t="n">
-        <v>224.0352098159517</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V9" t="n">
-        <v>224.0352098159517</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W9" t="n">
-        <v>16.44142755506243</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X9" t="n">
-        <v>16.44142755506243</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.44142755506243</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>176.2910403306274</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W11" t="n">
-        <v>639.2227743377304</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X11" t="n">
-        <v>431.628992076841</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y11" t="n">
-        <v>224.0352098159517</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>238.668476211275</v>
+        <v>222.9998941357428</v>
       </c>
       <c r="C12" t="n">
-        <v>106.7410566979059</v>
+        <v>222.9998941357428</v>
       </c>
       <c r="D12" t="n">
-        <v>106.7410566979059</v>
+        <v>222.9998941357428</v>
       </c>
       <c r="E12" t="n">
-        <v>106.7410566979059</v>
+        <v>222.9998941357428</v>
       </c>
       <c r="F12" t="n">
-        <v>106.7410566979059</v>
+        <v>222.9998941357428</v>
       </c>
       <c r="G12" t="n">
-        <v>106.7410566979059</v>
+        <v>84.26906871835831</v>
       </c>
       <c r="H12" t="n">
-        <v>106.7410566979059</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>16.44142755506243</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>219.90409354896</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M12" t="n">
-        <v>423.3667595428576</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N12" t="n">
-        <v>570.0333416264414</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W12" t="n">
-        <v>822.0713777531216</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="X12" t="n">
-        <v>614.4775954922324</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="Y12" t="n">
-        <v>406.8838132313431</v>
+        <v>391.2152311558108</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>148.224788009872</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>148.224788009872</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>148.224788009872</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>148.224788009872</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>148.224788009872</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>148.224788009872</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>148.224788009872</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>148.224788009872</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>148.224788009872</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>148.224788009872</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>148.224788009872</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>148.224788009872</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>148.224788009872</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>148.224788009872</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>148.224788009872</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>148.224788009872</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>614.4775954922324</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
-        <v>406.8838132313431</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3015730003187</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3671633390675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>16.44142755506243</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>29.03990215807806</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>232.5025681519757</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N15" t="n">
-        <v>435.9652341458732</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O15" t="n">
-        <v>639.4279001397708</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>336.430889791532</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>336.430889791532</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>787.9255531013317</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C18" t="n">
-        <v>613.4725238202047</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D18" t="n">
-        <v>464.5381141589534</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E18" t="n">
-        <v>305.3006591534979</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U18" t="n">
-        <v>862.8876260635219</v>
+        <v>560.7319261617492</v>
       </c>
       <c r="V18" t="n">
-        <v>862.8876260635219</v>
+        <v>560.7319261617492</v>
       </c>
       <c r="W18" t="n">
-        <v>862.8876260635219</v>
+        <v>560.7319261617492</v>
       </c>
       <c r="X18" t="n">
-        <v>862.8876260635219</v>
+        <v>560.7319261617492</v>
       </c>
       <c r="Y18" t="n">
-        <v>862.8876260635219</v>
+        <v>352.9716273967953</v>
       </c>
     </row>
     <row r="19">
@@ -5689,31 +5691,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5779,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V20" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W20" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X20" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
         <v>19.28114311021272</v>
@@ -5841,40 +5843,40 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U21" t="n">
-        <v>735.8335372470253</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V21" t="n">
-        <v>500.6814290152826</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="W21" t="n">
-        <v>376.0670529769968</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X21" t="n">
-        <v>168.215552771464</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y21" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5884,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
         <v>19.28114311021272</v>
@@ -5932,28 +5934,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>241.7186438601369</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C23" t="n">
-        <v>241.7186438601369</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D23" t="n">
-        <v>241.7186438601369</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6013,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T23" t="n">
-        <v>728.6161971483371</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U23" t="n">
-        <v>728.6161971483371</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V23" t="n">
-        <v>728.6161971483371</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W23" t="n">
-        <v>728.6161971483371</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X23" t="n">
-        <v>485.167420504237</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y23" t="n">
-        <v>485.167420504237</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="24">
@@ -6042,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
         <v>19.28114311021272</v>
@@ -6075,13 +6077,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P24" t="n">
         <v>894.6625969973069</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>787.6399652005859</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U24" t="n">
-        <v>787.6399652005859</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V24" t="n">
-        <v>787.6399652005859</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W24" t="n">
-        <v>544.1911885564859</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="X24" t="n">
-        <v>544.1911885564859</v>
+        <v>35.98341002332393</v>
       </c>
       <c r="Y24" t="n">
-        <v>336.430889791532</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>874.2758585542716</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6308,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>486.8488635328713</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6333,19 +6335,19 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U27" t="n">
-        <v>461.2466632505798</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V27" t="n">
-        <v>226.0945550188371</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W27" t="n">
-        <v>226.0945550188371</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>44.28007843568128</v>
       </c>
       <c r="Y27" t="n">
         <v>19.28114311021272</v>
@@ -6400,19 +6402,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U28" t="n">
         <v>19.28114311021272</v>
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.35113235729608</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C29" t="n">
-        <v>31.35113235729608</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D29" t="n">
-        <v>31.35113235729608</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E29" t="n">
-        <v>31.35113235729608</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F29" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>518.2486856454962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V29" t="n">
-        <v>518.2486856454962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W29" t="n">
-        <v>518.2486856454962</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X29" t="n">
-        <v>518.2486856454962</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y29" t="n">
-        <v>274.7999090013961</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>243.3720121938209</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C30" t="n">
-        <v>243.3720121938209</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D30" t="n">
-        <v>243.3720121938209</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E30" t="n">
-        <v>243.3720121938209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>243.3720121938209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N30" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6570,22 +6572,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V30" t="n">
-        <v>862.8876260635219</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="W30" t="n">
-        <v>619.4388494194218</v>
+        <v>189.028636514577</v>
       </c>
       <c r="X30" t="n">
-        <v>411.587349213889</v>
+        <v>189.028636514577</v>
       </c>
       <c r="Y30" t="n">
-        <v>411.587349213889</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6677,16 +6679,16 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W32" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>256.1153302261713</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C33" t="n">
-        <v>256.1153302261713</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D33" t="n">
-        <v>256.1153302261713</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E33" t="n">
-        <v>256.1153302261713</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F33" t="n">
-        <v>109.5807722530562</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G33" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6789,40 +6791,40 @@
         <v>383.2428491569326</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U33" t="n">
-        <v>667.7794438903394</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V33" t="n">
-        <v>667.7794438903394</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W33" t="n">
-        <v>424.3306672462393</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X33" t="n">
-        <v>424.3306672462393</v>
+        <v>279.432186667424</v>
       </c>
       <c r="Y33" t="n">
-        <v>424.3306672462393</v>
+        <v>279.432186667424</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6959,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W35" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X35" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y35" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>246.4666730769152</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C36" t="n">
-        <v>168.215552771464</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="E36" t="n">
         <v>19.28114311021272</v>
@@ -7020,19 +7022,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O36" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7044,22 +7046,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U36" t="n">
-        <v>689.4702815141908</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V36" t="n">
-        <v>454.3181732824481</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W36" t="n">
-        <v>454.3181732824481</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X36" t="n">
-        <v>246.4666730769152</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y36" t="n">
-        <v>246.4666730769152</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="37">
@@ -7126,7 +7128,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
         <v>19.28114311021272</v>
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C38" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7211,13 +7213,13 @@
         <v>720.6083788665362</v>
       </c>
       <c r="W38" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X38" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>466.4486707798429</v>
+        <v>279.432186667424</v>
       </c>
       <c r="C39" t="n">
-        <v>291.9956414987158</v>
+        <v>104.979157386297</v>
       </c>
       <c r="D39" t="n">
-        <v>268.8182272585117</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7254,13 +7256,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7278,25 +7280,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U39" t="n">
-        <v>634.6640077999109</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V39" t="n">
-        <v>634.6640077999109</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W39" t="n">
-        <v>634.6640077999109</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X39" t="n">
-        <v>634.6640077999109</v>
+        <v>279.432186667424</v>
       </c>
       <c r="Y39" t="n">
-        <v>634.6640077999109</v>
+        <v>279.432186667424</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>28.51141680214578</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="C41" t="n">
-        <v>28.51141680214578</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="D41" t="n">
-        <v>28.51141680214578</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>28.51141680214578</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>28.51141680214578</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>28.51141680214578</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>28.51141680214578</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>28.51141680214578</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>16.44142755506243</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>176.2910403306274</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>651.2927635848137</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T41" t="n">
-        <v>443.6989813239244</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U41" t="n">
-        <v>236.1051990630351</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V41" t="n">
-        <v>236.1051990630351</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="W41" t="n">
-        <v>28.51141680214578</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="X41" t="n">
-        <v>28.51141680214578</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="Y41" t="n">
-        <v>28.51141680214578</v>
+        <v>343.8760884571613</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>190.8944568361894</v>
+        <v>612.718391167419</v>
       </c>
       <c r="C42" t="n">
-        <v>16.44142755506243</v>
+        <v>612.718391167419</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>142.2888212580996</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>345.7514872519972</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>549.2141532458947</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O42" t="n">
-        <v>752.6768192397923</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397923</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q42" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>648.6540332037905</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>566.7035761171468</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>566.7035761171468</v>
+        <v>820.5698913729518</v>
       </c>
       <c r="V42" t="n">
-        <v>566.7035761171468</v>
+        <v>820.5698913729518</v>
       </c>
       <c r="W42" t="n">
-        <v>566.7035761171468</v>
+        <v>820.5698913729518</v>
       </c>
       <c r="X42" t="n">
-        <v>566.7035761171468</v>
+        <v>612.718391167419</v>
       </c>
       <c r="Y42" t="n">
-        <v>359.1097938562575</v>
+        <v>612.718391167419</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I43" t="n">
-        <v>16.44142755506243</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="J43" t="n">
-        <v>16.44142755506243</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L43" t="n">
-        <v>43.75555256277541</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M43" t="n">
-        <v>82.94359075499759</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N43" t="n">
-        <v>126.6344414104339</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.8838132313431</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>406.8838132313431</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>406.8838132313431</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>199.2900309704538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>706.4576170384386</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>822.0713777531216</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>614.4775954922324</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>406.8838132313431</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V44" t="n">
-        <v>406.8838132313431</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W44" t="n">
-        <v>406.8838132313431</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X44" t="n">
-        <v>406.8838132313431</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y44" t="n">
-        <v>406.8838132313431</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>238.668476211275</v>
+        <v>552.3930418464681</v>
       </c>
       <c r="C45" t="n">
-        <v>238.668476211275</v>
+        <v>520.918188268317</v>
       </c>
       <c r="D45" t="n">
-        <v>130.5646958002688</v>
+        <v>520.918188268317</v>
       </c>
       <c r="E45" t="n">
-        <v>130.5646958002688</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="F45" t="n">
-        <v>130.5646958002688</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G45" t="n">
-        <v>130.5646958002688</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H45" t="n">
-        <v>17.19556020784815</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I45" t="n">
-        <v>17.19556020784815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>548.724319600695</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>548.724319600695</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>639.4279001397708</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X45" t="n">
-        <v>614.4775954922324</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y45" t="n">
-        <v>406.8838132313431</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>287.1168215956966</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>256.3140754849514</v>
+        <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>284.7455247652193</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>193.4844405477277</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>184.8542410932831</v>
       </c>
       <c r="O3" t="n">
-        <v>155.3219763666824</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>193.4943030959713</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,16 +8218,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8298,19 +8300,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>160.0786444523452</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8453,16 +8455,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8535,19 +8537,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>233.7538122443171</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8693,13 +8695,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8769,19 +8771,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>279.489774794024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8927,16 +8929,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>310.4448022570774</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9006,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>151.2801117021122</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9243,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9489,7 +9491,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,7 +9725,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9732,7 +9734,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9954,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>303.8835549304717</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10437,16 +10439,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>292.5201795090609</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,22 +10670,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N39" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11060,16 +11062,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11142,22 +11144,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>265.6729592778915</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11300,19 +11302,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,19 +11378,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O45" t="n">
-        <v>234.2160227667432</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23267,7 +23269,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
@@ -23309,22 +23311,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>168.2208513361757</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>139.5272757214993</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23337,7 +23339,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>42.10035367008032</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23349,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>47.89739788443234</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23382,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23391,19 +23393,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,7 +23457,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
@@ -23476,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23495,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>344.0891364002832</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23504,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>29.45577218916847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23543,10 +23545,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23555,7 +23557,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23571,31 +23573,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>165.0163922830409</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23628,16 +23630,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>43.16495137196441</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23677,7 +23679,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23713,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23738,22 +23740,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,13 +23776,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -23795,10 +23797,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>301.8181508768923</v>
       </c>
     </row>
     <row r="18">
@@ -23808,22 +23810,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>92.32073141729907</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
@@ -23832,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>198.4973048242362</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23877,7 +23879,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23929,13 +23931,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="20">
@@ -23969,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>174.9274946967228</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>113.6687527430239</v>
@@ -23990,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24017,7 +24019,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24032,10 +24034,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>135.4421949581581</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24051,7 +24053,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>29.41897557874998</v>
       </c>
       <c r="W21" t="n">
-        <v>128.3267508830167</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24127,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24172,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,7 +24214,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>161.7172443298368</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24221,7 +24223,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>255.0550143366059</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24251,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24330,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>25.51171028787184</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24348,10 +24350,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>189.1474515333243</v>
       </c>
     </row>
     <row r="25">
@@ -24388,7 +24390,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24403,13 +24405,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>155.2593996044853</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24443,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>164.936795482178</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24452,7 +24454,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24464,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24494,22 +24496,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>107.53913272771</v>
       </c>
       <c r="W26" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24573,10 +24575,10 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24585,10 +24587,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>1.027707413939339</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>180.9337498050905</v>
       </c>
     </row>
     <row r="28">
@@ -24640,7 +24642,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>86.16204325169439</v>
@@ -24649,13 +24651,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>155.8535025062293</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24686,13 +24688,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24701,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,31 +24724,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>8.68397329741569</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24765,22 +24767,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>28.47559233319285</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24810,10 +24812,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24822,10 +24824,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>195.2777577623847</v>
       </c>
     </row>
     <row r="31">
@@ -24883,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24898,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24929,7 +24931,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24959,13 +24961,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24977,7 +24979,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>254.830481723707</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24993,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>46.32716769143885</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25005,16 +25007,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25041,25 +25043,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>132.7911762717027</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25084,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.9909793584588</v>
@@ -25117,7 +25119,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25129,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>239.2941050228172</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25199,16 +25201,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25217,10 +25219,10 @@
         <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25233,13 +25235,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>95.239889885919</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>92.97244319957487</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25284,19 +25286,19 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25366,10 +25368,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25388,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25409,10 +25411,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25451,13 +25453,13 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="39">
@@ -25467,16 +25469,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>124.4994254668367</v>
+        <v>62.60403143131535</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25488,7 +25490,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25518,13 +25520,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25533,7 +25535,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25594,10 +25596,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25631,13 +25633,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>274.3483346048629</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25649,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25673,22 +25675,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>39.94924155962048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>17.57800512585095</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,22 +25706,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25755,13 +25757,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>119.0337761790443</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>83.88899058466725</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25770,10 +25772,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25804,13 +25806,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25862,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>225.855928360474</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25916,10 +25918,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>45.82780846955609</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25928,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25944,28 +25946,28 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>141.5483939459461</v>
       </c>
       <c r="D45" t="n">
-        <v>40.42232295774259</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -26004,13 +26006,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26074,10 +26076,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>898497.6951216905</v>
+        <v>894826.2293615669</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>898497.6951216905</v>
+        <v>899355.0597473818</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>898497.6951216905</v>
+        <v>899355.0597473818</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355056.7224626887</v>
+        <v>373980.6030856417</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355056.7224626888</v>
+        <v>373980.6030856417</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>373980.6030856417</v>
+        <v>373980.6030856418</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>373980.6030856419</v>
+        <v>373980.6030856417</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>373980.6030856417</v>
+        <v>373980.6030856418</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>355056.7224626888</v>
+        <v>373980.6030856416</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355056.7224626887</v>
+        <v>373980.6030856417</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583915</v>
+      </c>
+      <c r="C2" t="n">
         <v>554203.1946583912</v>
       </c>
-      <c r="C2" t="n">
-        <v>554203.1946583914</v>
-      </c>
       <c r="D2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
-        <v>212972.8164771577</v>
+        <v>224316.9079172986</v>
       </c>
       <c r="F2" t="n">
-        <v>212972.8164771577</v>
+        <v>224316.9079172986</v>
       </c>
       <c r="G2" t="n">
         <v>224316.9079172987</v>
@@ -26335,7 +26337,7 @@
         <v>224316.9079172986</v>
       </c>
       <c r="J2" t="n">
-        <v>224316.9079172987</v>
+        <v>224316.9079172986</v>
       </c>
       <c r="K2" t="n">
         <v>224316.9079172987</v>
@@ -26344,16 +26346,16 @@
         <v>224316.9079172986</v>
       </c>
       <c r="M2" t="n">
+        <v>224316.9079172986</v>
+      </c>
+      <c r="N2" t="n">
+        <v>224316.9079172986</v>
+      </c>
+      <c r="O2" t="n">
         <v>224316.9079172987</v>
       </c>
-      <c r="N2" t="n">
-        <v>224316.9079172987</v>
-      </c>
-      <c r="O2" t="n">
-        <v>212972.8164771577</v>
-      </c>
       <c r="P2" t="n">
-        <v>212972.8164771577</v>
+        <v>224316.9079172986</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68873.75658168984</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>60576.32218666811</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9729.042974167098</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>53772.51089020943</v>
+        <v>14001.23214027929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>48256.95293363261</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>304569.4782239668</v>
+        <v>341864.8743836957</v>
       </c>
       <c r="C4" t="n">
-        <v>304569.4782239669</v>
+        <v>295860.2172754403</v>
       </c>
       <c r="D4" t="n">
-        <v>304569.4782239668</v>
+        <v>295860.2172754402</v>
       </c>
       <c r="E4" t="n">
-        <v>16031.60407651876</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="F4" t="n">
-        <v>16031.60407651876</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="G4" t="n">
         <v>16914.68964098084</v>
@@ -26454,10 +26456,10 @@
         <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>16031.60407651876</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="P4" t="n">
-        <v>16031.60407651876</v>
+        <v>16914.68964098084</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46123.08494184745</v>
+        <v>36881.16176380494</v>
       </c>
       <c r="C5" t="n">
-        <v>46123.08494184745</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>46123.08494184745</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>134636.8749108871</v>
+        <v>157523.8792514896</v>
       </c>
       <c r="C6" t="n">
-        <v>203510.6314925771</v>
+        <v>149485.3864325211</v>
       </c>
       <c r="D6" t="n">
-        <v>203510.6314925772</v>
+        <v>210061.7086191896</v>
       </c>
       <c r="E6" t="n">
-        <v>184445.7274587915</v>
+        <v>192748.5495125561</v>
       </c>
       <c r="F6" t="n">
-        <v>184445.7274587915</v>
+        <v>192748.5495125561</v>
       </c>
       <c r="G6" t="n">
-        <v>183019.5065383891</v>
+        <v>192748.5495125562</v>
       </c>
       <c r="H6" t="n">
         <v>192748.5495125561</v>
@@ -26543,25 +26545,25 @@
         <v>192748.5495125561</v>
       </c>
       <c r="J6" t="n">
-        <v>138976.0386223468</v>
+        <v>178747.3173722768</v>
       </c>
       <c r="K6" t="n">
-        <v>192748.5495125562</v>
+        <v>144491.5965789235</v>
       </c>
       <c r="L6" t="n">
         <v>192748.5495125561</v>
       </c>
       <c r="M6" t="n">
+        <v>192748.5495125561</v>
+      </c>
+      <c r="N6" t="n">
+        <v>192748.5495125561</v>
+      </c>
+      <c r="O6" t="n">
         <v>192748.5495125562</v>
       </c>
-      <c r="N6" t="n">
-        <v>192748.5495125562</v>
-      </c>
-      <c r="O6" t="n">
-        <v>184445.7274587915</v>
-      </c>
       <c r="P6" t="n">
-        <v>184445.7274587915</v>
+        <v>192748.5495125561</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27388,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>207.4499279476357</v>
+        <v>353.3635167317617</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27399,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>156.9633605604562</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27421,13 +27423,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>3.502225147964936</v>
+        <v>155.5075405762956</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27436,7 +27438,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>307.8704497879187</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>113.0206546399176</v>
       </c>
       <c r="C3" t="n">
-        <v>65.04803513151212</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>110.5112449034372</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,13 +27475,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>58.72291522654671</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27521,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>152.2604561935277</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27558,7 +27560,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -27579,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.05569651810566</v>
+        <v>62.72157442133235</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27597,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>233.0104693266412</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>172.1971263790874</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>180.1930703965715</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27631,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27663,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>3.502225147964936</v>
+        <v>30.86275655426235</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27676,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27695,7 +27697,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27710,13 +27712,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>2.322503269695247</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27777,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>123.8600405104216</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27798,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,13 +27818,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27856,25 +27858,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>237.8052177150865</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>209.7848930768546</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,10 +27900,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>3.502225147964936</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27916,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>251.6582601192213</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27953,7 +27955,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>85.46777213178484</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>46.1771387226392</v>
+        <v>100.4169029901996</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28053,7 +28055,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28071,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>239.4980740029173</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>26.21586406326473</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>205.5178444382804</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="N3" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O3" t="n">
-        <v>12.72573192223796</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,19 +34938,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35018,19 +35020,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>21.52426467247106</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35173,19 +35175,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35255,19 +35257,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>91.61977832229879</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35413,13 +35415,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N11" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35489,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>205.5178444382804</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>148.1480627106907</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35653,10 +35655,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>81.03173866048648</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>12.72573192223801</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>205.5178444382804</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N15" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35893,7 +35895,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36209,7 +36211,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,7 +36445,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36452,7 +36454,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
       <c r="O30" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37157,16 +37159,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37315,7 +37317,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37388,22 +37390,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37780,16 +37782,16 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37862,22 +37864,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>127.1185794980173</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38023,16 +38025,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,19 +38098,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O45" t="n">
-        <v>91.61977832229879</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1528454.116211911</v>
+        <v>1459602.819770474</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404855</v>
+        <v>14661612.74404854</v>
       </c>
     </row>
     <row r="9">
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>53.51252900994975</v>
+        <v>9.891109467671336</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -703,25 +703,25 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>19.88180868221617</v>
-      </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>47.13383555196375</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>46.38724422570589</v>
       </c>
       <c r="H3" t="n">
         <v>53.51252900994975</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1.170977004479174</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>23.44046883036203</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>105.6245995301945</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -940,16 +940,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>178.157313031983</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -977,25 +977,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>45.28887413297245</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>92.61456637301976</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>24.7554325077908</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,16 +1147,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>83.51289199636496</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -1186,7 +1186,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>118.0728405592477</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1226,10 +1226,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>97.48188567889162</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>151.27808017072</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U11" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="12">
@@ -1448,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>64.33804635206413</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1496,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>88.12692860372125</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>241.0142888776591</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,16 +1609,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>58.39471844666277</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
         <v>241.0142888776591</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1651,13 +1651,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>201.8747347413515</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>162.6080338315131</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>11.86372679529251</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1864,10 +1864,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1925,13 +1925,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1940,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>46.01752716430177</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>27.44407725673862</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,70 +2083,70 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>234.288905720311</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2213,16 +2213,16 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>203.3816115706753</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>57.44545255886318</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2329,13 +2329,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2405,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>33.61939259518709</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -2459,13 +2459,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>16.53524424398009</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2520,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2599,13 +2599,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>220.2131257424249</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2684,25 +2684,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y27" t="n">
-        <v>24.74894597221386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2754,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U28" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2800,17 +2800,17 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>202.2946864288972</v>
-      </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>65.13060206523731</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.40493801491967</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2991,13 +2991,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>133.186967585368</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3031,22 +3031,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>120.2060159584285</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3116,13 +3116,13 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,25 +3155,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>77.18032238670133</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3231,19 +3231,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3271,10 +3271,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3310,16 +3310,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>94.41048699370604</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="U35" t="n">
         <v>241.0142888776591</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3347,13 +3347,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>64.67263725582607</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3392,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="37">
@@ -3480,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3502,23 +3502,23 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
@@ -3547,31 +3547,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,10 +3584,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>84.8410341333234</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3629,25 +3629,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3702,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
     </row>
     <row r="41">
@@ -3745,64 +3745,64 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>80.33470701582003</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3824,13 +3824,13 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -3875,10 +3875,10 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>142.0523914963076</v>
+        <v>201.7660823049049</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3918,13 +3918,13 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="44">
@@ -3976,76 +3976,76 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>94.41048699370604</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C44" t="n">
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S44" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,31 +4055,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>31.16010504236965</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>21.4020580922776</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>139.9144214012476</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="C2" t="n">
-        <v>139.9144214012476</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="D2" t="n">
-        <v>139.9144214012476</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="E2" t="n">
-        <v>139.9144214012476</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="F2" t="n">
-        <v>85.86136179523773</v>
+        <v>31.80830218922787</v>
       </c>
       <c r="G2" t="n">
-        <v>70.40405117388919</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="H2" t="n">
-        <v>70.40405117388919</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="I2" t="n">
         <v>16.35099156787933</v>
@@ -4333,49 +4333,49 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>57.25840604064623</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="L2" t="n">
         <v>108.0953086000985</v>
       </c>
       <c r="M2" t="n">
-        <v>108.0953086000985</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="N2" t="n">
-        <v>108.0953086000985</v>
+        <v>214.050116039799</v>
       </c>
       <c r="O2" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>214.050116039799</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="S2" t="n">
-        <v>159.9970564337892</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="T2" t="n">
-        <v>159.9970564337892</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="U2" t="n">
-        <v>159.9970564337892</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="V2" t="n">
-        <v>139.9144214012476</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="W2" t="n">
-        <v>139.9144214012476</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="X2" t="n">
-        <v>139.9144214012476</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="Y2" t="n">
-        <v>139.9144214012476</v>
+        <v>41.79932185354235</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>214.050116039799</v>
+      </c>
+      <c r="C3" t="n">
+        <v>159.9970564337892</v>
+      </c>
+      <c r="D3" t="n">
+        <v>159.9970564337892</v>
+      </c>
+      <c r="E3" t="n">
+        <v>159.9970564337892</v>
+      </c>
+      <c r="F3" t="n">
         <v>105.9439968277793</v>
       </c>
-      <c r="C3" t="n">
-        <v>105.9439968277793</v>
-      </c>
-      <c r="D3" t="n">
-        <v>105.9439968277793</v>
-      </c>
-      <c r="E3" t="n">
-        <v>58.33406192680583</v>
-      </c>
-      <c r="F3" t="n">
-        <v>58.33406192680583</v>
-      </c>
       <c r="G3" t="n">
-        <v>58.33406192680583</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="H3" t="n">
-        <v>4.28100232079598</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="I3" t="n">
-        <v>4.28100232079598</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="J3" t="n">
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
+        <v>4.28100232079598</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.28100232079598</v>
+      </c>
+      <c r="M3" t="n">
         <v>57.25840604064623</v>
       </c>
-      <c r="L3" t="n">
-        <v>57.25840604064623</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>108.0953086000985</v>
-      </c>
-      <c r="N3" t="n">
-        <v>161.0727123199487</v>
       </c>
       <c r="O3" t="n">
         <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
@@ -4451,10 +4451,10 @@
         <v>214.050116039799</v>
       </c>
       <c r="X3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Y3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.28100232079598</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="C4" t="n">
-        <v>4.28100232079598</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="D4" t="n">
-        <v>4.28100232079598</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="E4" t="n">
-        <v>4.28100232079598</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="F4" t="n">
-        <v>4.28100232079598</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="G4" t="n">
-        <v>4.28100232079598</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="H4" t="n">
-        <v>4.28100232079598</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="I4" t="n">
-        <v>4.28100232079598</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="J4" t="n">
-        <v>4.28100232079598</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="K4" t="n">
         <v>4.28100232079598</v>
@@ -4509,31 +4509,31 @@
         <v>136.0643627756056</v>
       </c>
       <c r="Q4" t="n">
-        <v>112.3871215328157</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="R4" t="n">
-        <v>112.3871215328157</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="S4" t="n">
-        <v>112.3871215328157</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="T4" t="n">
-        <v>112.3871215328157</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="U4" t="n">
-        <v>112.3871215328157</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="V4" t="n">
-        <v>112.3871215328157</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="W4" t="n">
-        <v>58.33406192680583</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="X4" t="n">
-        <v>4.28100232079598</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.28100232079598</v>
+        <v>27.95824356358591</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>540.6514970160482</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C5" t="n">
-        <v>297.2027203719481</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D5" t="n">
-        <v>297.2027203719481</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E5" t="n">
-        <v>297.2027203719481</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F5" t="n">
-        <v>290.2572196227447</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
-        <v>274.7999090013961</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>784.1002736601483</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>784.1002736601483</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>784.1002736601483</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V5" t="n">
-        <v>784.1002736601483</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W5" t="n">
-        <v>540.6514970160482</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X5" t="n">
-        <v>540.6514970160482</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y5" t="n">
-        <v>540.6514970160482</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>862.8876260635219</v>
+        <v>353.7257600495809</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4649,22 +4649,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4685,13 +4685,13 @@
         <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>862.8876260635219</v>
+        <v>769.3375590200676</v>
       </c>
       <c r="X6" t="n">
-        <v>862.8876260635219</v>
+        <v>561.4860588145348</v>
       </c>
       <c r="Y6" t="n">
-        <v>862.8876260635219</v>
+        <v>353.7257600495809</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4752,25 +4752,25 @@
         <v>66.78106667958005</v>
       </c>
       <c r="S7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>482.2773291604919</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C8" t="n">
-        <v>482.2773291604919</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D8" t="n">
-        <v>482.2773291604919</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E8" t="n">
-        <v>482.2773291604919</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F8" t="n">
-        <v>475.3318284112885</v>
+        <v>115.7075889192809</v>
       </c>
       <c r="G8" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>601.5428246748836</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>601.5428246748836</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V8" t="n">
-        <v>601.5428246748836</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W8" t="n">
-        <v>601.5428246748836</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X8" t="n">
-        <v>482.2773291604919</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y8" t="n">
-        <v>482.2773291604919</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>118.5018269537981</v>
       </c>
       <c r="H9" t="n">
         <v>20.03527576299844</v>
@@ -4886,19 +4886,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>588.4532163200711</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>588.4532163200711</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>435.6470747334852</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X9" t="n">
-        <v>227.7955745279523</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
         <v>19.28114311021272</v>
@@ -4983,31 +4983,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
         <v>19.28114311021272</v>
@@ -5071,22 +5071,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>738.7078125165641</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U11" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V11" t="n">
-        <v>495.259035872464</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W11" t="n">
-        <v>495.259035872464</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X11" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="Y11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>222.9998941357428</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C12" t="n">
-        <v>222.9998941357428</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D12" t="n">
-        <v>222.9998941357428</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>222.9998941357428</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>222.9998941357428</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>84.26906871835831</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
         <v>19.28114311021272</v>
@@ -5123,49 +5123,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>234.810827406191</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M12" t="n">
-        <v>234.810827406191</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>862.8876260635219</v>
+        <v>875.0400559109178</v>
       </c>
       <c r="U12" t="n">
-        <v>634.6640077999109</v>
+        <v>646.8164376473068</v>
       </c>
       <c r="V12" t="n">
-        <v>634.6640077999109</v>
+        <v>411.6643294155641</v>
       </c>
       <c r="W12" t="n">
-        <v>391.2152311558108</v>
+        <v>168.215552771464</v>
       </c>
       <c r="X12" t="n">
-        <v>391.2152311558108</v>
+        <v>168.215552771464</v>
       </c>
       <c r="Y12" t="n">
-        <v>391.2152311558108</v>
+        <v>168.215552771464</v>
       </c>
     </row>
     <row r="13">
@@ -5220,22 +5220,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
         <v>19.28114311021272</v>
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>284.1276524520142</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="C14" t="n">
-        <v>262.7299197543128</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="D14" t="n">
-        <v>262.7299197543128</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="E14" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F14" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5299,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T14" t="n">
-        <v>527.5764290961142</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U14" t="n">
-        <v>527.5764290961142</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V14" t="n">
-        <v>527.5764290961142</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W14" t="n">
-        <v>284.1276524520142</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X14" t="n">
-        <v>284.1276524520142</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y14" t="n">
-        <v>284.1276524520142</v>
+        <v>577.2332497330343</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>168.215552771464</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C15" t="n">
-        <v>168.215552771464</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I15" t="n">
         <v>19.28114311021272</v>
@@ -5366,13 +5366,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N15" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
         <v>964.0571555106362</v>
@@ -5381,28 +5381,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U15" t="n">
-        <v>735.8335372470253</v>
+        <v>485.5564080380782</v>
       </c>
       <c r="V15" t="n">
-        <v>500.6814290152826</v>
+        <v>485.5564080380782</v>
       </c>
       <c r="W15" t="n">
-        <v>500.6814290152826</v>
+        <v>485.5564080380782</v>
       </c>
       <c r="X15" t="n">
-        <v>336.430889791532</v>
+        <v>485.5564080380782</v>
       </c>
       <c r="Y15" t="n">
-        <v>336.430889791532</v>
+        <v>277.7961092731243</v>
       </c>
     </row>
     <row r="16">
@@ -5460,19 +5460,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
         <v>19.28114311021272</v>
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>262.7299197543128</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="C17" t="n">
-        <v>262.7299197543128</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="D17" t="n">
-        <v>262.7299197543128</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T17" t="n">
-        <v>591.4512093066566</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U17" t="n">
-        <v>591.4512093066566</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="V17" t="n">
-        <v>591.4512093066566</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="W17" t="n">
-        <v>591.4512093066566</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="X17" t="n">
-        <v>348.0024326625565</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.7299197543128</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>352.9716273967953</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="C18" t="n">
-        <v>178.5185981156682</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="D18" t="n">
-        <v>178.5185981156682</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5597,49 +5597,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>487.8483949674443</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>560.7319261617492</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V18" t="n">
-        <v>560.7319261617492</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W18" t="n">
-        <v>560.7319261617492</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X18" t="n">
-        <v>560.7319261617492</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y18" t="n">
-        <v>352.9716273967953</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="19">
@@ -5703,19 +5703,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>742.8341567219593</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="21">
@@ -5807,7 +5807,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C21" t="n">
         <v>19.28114311021272</v>
@@ -5843,13 +5843,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>909.0960185696777</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5861,22 +5861,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>432.4774131586771</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V21" t="n">
-        <v>227.0414418751666</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W21" t="n">
-        <v>227.0414418751666</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="X21" t="n">
-        <v>227.0414418751666</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="22">
@@ -5934,10 +5934,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
         <v>19.28114311021272</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>348.0024326625565</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>348.0024326625565</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>348.0024326625565</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>104.5536560184564</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>104.5536560184564</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>104.5536560184564</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6025,16 +6025,16 @@
         <v>591.4512093066566</v>
       </c>
       <c r="V23" t="n">
-        <v>348.0024326625565</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W23" t="n">
-        <v>348.0024326625565</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X23" t="n">
-        <v>348.0024326625565</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y23" t="n">
-        <v>348.0024326625565</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>212.4775805350491</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>212.4775805350491</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>212.4775805350491</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>53.24012552959363</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>53.24012552959363</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>53.24012552959363</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6071,49 +6071,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>257.8852890990952</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V24" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W24" t="n">
-        <v>243.8349102288568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X24" t="n">
-        <v>35.98341002332393</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>380.6929175551172</v>
       </c>
     </row>
     <row r="25">
@@ -6168,22 +6168,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
         <v>19.28114311021272</v>
@@ -6247,22 +6247,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T26" t="n">
-        <v>728.6161971483371</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U26" t="n">
-        <v>728.6161971483371</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W26" t="n">
         <v>262.7299197543128</v>
@@ -6271,7 +6271,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6311,19 +6311,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>383.2428491569326</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>621.8469951458151</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6332,22 +6332,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>487.2836868729568</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V27" t="n">
-        <v>252.1315786412141</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W27" t="n">
-        <v>252.1315786412141</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X27" t="n">
-        <v>44.28007843568128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
         <v>19.28114311021272</v>
@@ -6402,19 +6402,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
         <v>19.28114311021272</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C29" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D29" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E29" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F29" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="30">
@@ -6518,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>178.5185981156682</v>
+        <v>85.06963004479587</v>
       </c>
       <c r="C30" t="n">
-        <v>178.5185981156682</v>
+        <v>85.06963004479587</v>
       </c>
       <c r="D30" t="n">
-        <v>178.5185981156682</v>
+        <v>85.06963004479587</v>
       </c>
       <c r="E30" t="n">
         <v>19.28114311021272</v>
@@ -6548,16 +6548,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>249.2442489785619</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N30" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
         <v>894.6625969973069</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>432.4774131586771</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>432.4774131586771</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>189.028636514577</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X30" t="n">
-        <v>189.028636514577</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="Y30" t="n">
-        <v>178.5185981156682</v>
+        <v>85.06963004479587</v>
       </c>
     </row>
     <row r="31">
@@ -6639,10 +6639,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R31" t="n">
         <v>19.28114311021272</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="C32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="D32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="E32" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="F32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="G32" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G32" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>158.0119685275972</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="C33" t="n">
-        <v>158.0119685275972</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D33" t="n">
-        <v>158.0119685275972</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E33" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6785,13 +6785,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>621.8469951458151</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O33" t="n">
         <v>712.019119383956</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>487.2836868729568</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>487.2836868729568</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>487.2836868729568</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X33" t="n">
-        <v>279.432186667424</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="Y33" t="n">
-        <v>279.432186667424</v>
+        <v>179.2727307684539</v>
       </c>
     </row>
     <row r="34">
@@ -6879,16 +6879,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
         <v>19.28114311021272</v>
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U35" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V35" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W35" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X35" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y35" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="36">
@@ -6992,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>84.60703932821886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>84.60703932821886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
         <v>19.28114311021272</v>
@@ -7019,16 +7019,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>712.019119383956</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O36" t="n">
         <v>712.019119383956</v>
@@ -7040,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>259.0600686093459</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>259.0600686093459</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>259.0600686093459</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y36" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7128,7 +7128,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
         <v>19.28114311021272</v>
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7195,28 +7195,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V38" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X38" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
         <v>262.7299197543128</v>
@@ -7229,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>279.432186667424</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>104.979157386297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
         <v>19.28114311021272</v>
@@ -7256,49 +7256,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>487.2836868729568</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V39" t="n">
-        <v>487.2836868729568</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W39" t="n">
-        <v>487.2836868729568</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X39" t="n">
-        <v>279.432186667424</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y39" t="n">
-        <v>279.432186667424</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7350,31 +7350,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y40" t="n">
         <v>19.28114311021272</v>
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>343.8760884571613</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C41" t="n">
-        <v>343.8760884571613</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
         <v>19.28114311021272</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T41" t="n">
-        <v>587.3248651012614</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U41" t="n">
-        <v>587.3248651012614</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V41" t="n">
-        <v>343.8760884571613</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W41" t="n">
-        <v>343.8760884571613</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X41" t="n">
-        <v>343.8760884571613</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y41" t="n">
-        <v>343.8760884571613</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>612.718391167419</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="C42" t="n">
-        <v>612.718391167419</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="D42" t="n">
-        <v>463.7839815061678</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="E42" t="n">
-        <v>304.5465265007123</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F42" t="n">
         <v>158.0119685275972</v>
@@ -7493,22 +7493,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N42" t="n">
-        <v>726.4525409563269</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O42" t="n">
-        <v>726.4525409563269</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P42" t="n">
-        <v>909.0960185696777</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7523,19 +7523,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>820.5698913729518</v>
+        <v>760.2530319703283</v>
       </c>
       <c r="V42" t="n">
-        <v>820.5698913729518</v>
+        <v>525.1009237385856</v>
       </c>
       <c r="W42" t="n">
-        <v>820.5698913729518</v>
+        <v>525.1009237385856</v>
       </c>
       <c r="X42" t="n">
-        <v>612.718391167419</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="Y42" t="n">
-        <v>612.718391167419</v>
+        <v>317.2494235330527</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7627,16 +7627,16 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7672,28 +7672,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U44" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V44" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W44" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X44" t="n">
-        <v>506.1786963984129</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y44" t="n">
-        <v>506.1786963984129</v>
+        <v>358.0940480307835</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>552.3930418464681</v>
+        <v>431.322492160084</v>
       </c>
       <c r="C45" t="n">
-        <v>520.918188268317</v>
+        <v>256.869462878957</v>
       </c>
       <c r="D45" t="n">
-        <v>520.918188268317</v>
+        <v>256.869462878957</v>
       </c>
       <c r="E45" t="n">
-        <v>361.6807332628614</v>
+        <v>256.869462878957</v>
       </c>
       <c r="F45" t="n">
-        <v>361.6807332628614</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G45" t="n">
-        <v>222.9499078454769</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H45" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7739,7 +7739,7 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O45" t="n">
         <v>781.4136778972854</v>
@@ -7751,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106362</v>
+        <v>639.0827909250379</v>
       </c>
       <c r="W45" t="n">
-        <v>720.6083788665362</v>
+        <v>639.0827909250379</v>
       </c>
       <c r="X45" t="n">
-        <v>720.6083788665362</v>
+        <v>639.0827909250379</v>
       </c>
       <c r="Y45" t="n">
-        <v>720.6083788665362</v>
+        <v>431.322492160084</v>
       </c>
     </row>
     <row r="46">
@@ -7839,10 +7839,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
         <v>19.28114311021272</v>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>273.6023800549303</v>
+        <v>271.4402576706899</v>
       </c>
       <c r="L2" t="n">
-        <v>287.1168215956966</v>
+        <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
-        <v>283.6107404316365</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>284.7455247652193</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>191.3539679843088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>193.4844405477277</v>
+        <v>195.6465629319681</v>
       </c>
       <c r="N3" t="n">
-        <v>184.8542410932831</v>
+        <v>182.6921187090427</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
-        <v>193.4943030959713</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,16 +8306,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8549,7 +8549,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8692,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8771,13 +8771,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>229.6373335557741</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
@@ -8786,10 +8786,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9014,16 +9014,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>255.5148970497678</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9254,16 +9254,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>369.031319612638</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9491,7 +9491,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>195.4980740263837</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9959,22 +9959,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>233.6791982203443</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10196,19 +10196,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>303.8835549304717</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10433,16 +10433,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O33" t="n">
-        <v>233.6791982203443</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,10 +10676,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10904,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11141,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>195.4980740263837</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11302,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11387,10 +11387,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23269,7 +23269,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
@@ -23311,22 +23311,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U11" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>139.5272757214993</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23336,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23351,10 +23351,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>47.89739788443234</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23384,19 +23384,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>112.0378000911004</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>10.68069428326055</v>
@@ -23460,7 +23460,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23469,7 +23469,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9455894282815</v>
+        <v>180.9206650946078</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,16 +23497,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>344.0891364002832</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>323.535651625599</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
         <v>174.288448637476</v>
@@ -23518,7 +23518,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,13 +23539,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23579,7 +23579,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23594,7 +23594,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>24.06664733962336</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>43.16495137196441</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23700,7 +23700,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,10 +23740,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>395.0123189464189</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
@@ -23752,10 +23752,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23797,10 +23797,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>301.8181508768923</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23813,13 +23813,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23828,10 +23828,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>66.21791707219469</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>198.4973048242362</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23943,7 +23943,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23971,10 +23971,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23986,7 +23986,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24013,13 +24013,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24031,10 +24031,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>135.4421949581581</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24101,16 +24101,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>29.41897557874998</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>194.2495306020564</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24174,13 +24174,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>298.3140538843193</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24217,13 +24217,13 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>255.0550143366059</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24265,7 +24265,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24293,7 +24293,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24302,7 +24302,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>78.61605164130937</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24347,13 +24347,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>189.1474515333243</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24408,10 +24408,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24448,7 +24448,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24487,13 +24487,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24502,16 +24502,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>107.53913272771</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>328.0572133466886</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24572,25 +24572,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y27" t="n">
-        <v>180.9337498050905</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24642,7 +24642,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
         <v>86.16204325169439</v>
@@ -24654,10 +24654,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U28" t="n">
-        <v>155.8535025062293</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24688,16 +24688,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F29" t="n">
-        <v>204.5813593128142</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24724,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24742,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24767,7 +24767,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>92.51447839016363</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>195.2777577623847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24879,13 +24879,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24919,22 +24919,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288198</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24964,10 +24964,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24979,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>254.830481723707</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>46.32716769143885</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25004,13 +25004,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,25 +25043,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>128.5926628167761</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25119,19 +25119,19 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2941050228172</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25159,10 +25159,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25177,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,16 +25198,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>128.6853625704253</v>
+        <v>32.75045248984648</v>
       </c>
       <c r="U35" t="n">
         <v>10.33136403017744</v>
@@ -25216,7 +25216,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25235,13 +25235,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>92.97244319957487</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="37">
@@ -25368,10 +25368,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25405,7 +25405,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25435,31 +25435,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25472,10 +25472,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>62.60403143131535</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25517,25 +25517,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25590,7 +25590,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>86.16204325169439</v>
@@ -25599,7 +25599,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>88.11912650183325</v>
       </c>
     </row>
     <row r="41">
@@ -25633,13 +25633,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>274.3483346048629</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25672,25 +25672,25 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25712,13 +25712,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -25763,10 +25763,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>83.88899058466725</v>
+        <v>24.17529977606995</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -25806,13 +25806,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>288.3233546697745</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25879,7 +25879,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25912,16 +25912,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25930,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25943,31 +25943,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>141.5483939459461</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>211.3985290571477</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26079,13 +26079,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>894826.2293615669</v>
+        <v>894826.2293615671</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>373980.6030856417</v>
+        <v>373980.6030856416</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>373980.6030856417</v>
+        <v>373980.6030856418</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>373980.6030856418</v>
+        <v>373980.6030856417</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>373980.6030856417</v>
+        <v>373980.6030856419</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>373980.6030856417</v>
+        <v>373980.6030856416</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>373980.6030856417</v>
+        <v>373980.6030856418</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
         <v>224316.9079172986</v>
       </c>
       <c r="F2" t="n">
-        <v>224316.9079172986</v>
+        <v>224316.9079172987</v>
       </c>
       <c r="G2" t="n">
         <v>224316.9079172987</v>
@@ -26340,19 +26340,19 @@
         <v>224316.9079172986</v>
       </c>
       <c r="K2" t="n">
-        <v>224316.9079172987</v>
+        <v>224316.9079172986</v>
       </c>
       <c r="L2" t="n">
         <v>224316.9079172986</v>
       </c>
       <c r="M2" t="n">
-        <v>224316.9079172986</v>
+        <v>224316.9079172987</v>
       </c>
       <c r="N2" t="n">
         <v>224316.9079172986</v>
       </c>
       <c r="O2" t="n">
-        <v>224316.9079172987</v>
+        <v>224316.9079172986</v>
       </c>
       <c r="P2" t="n">
         <v>224316.9079172986</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157523.8792514896</v>
+        <v>157523.8792514893</v>
       </c>
       <c r="C6" t="n">
-        <v>149485.3864325211</v>
+        <v>149485.3864325212</v>
       </c>
       <c r="D6" t="n">
-        <v>210061.7086191896</v>
+        <v>210061.7086191895</v>
       </c>
       <c r="E6" t="n">
-        <v>192748.5495125561</v>
+        <v>180530.5388925156</v>
       </c>
       <c r="F6" t="n">
-        <v>192748.5495125561</v>
+        <v>180530.5388925157</v>
       </c>
       <c r="G6" t="n">
-        <v>192748.5495125562</v>
+        <v>180530.5388925157</v>
       </c>
       <c r="H6" t="n">
-        <v>192748.5495125561</v>
+        <v>180530.5388925157</v>
       </c>
       <c r="I6" t="n">
-        <v>192748.5495125561</v>
+        <v>180530.5388925157</v>
       </c>
       <c r="J6" t="n">
-        <v>178747.3173722768</v>
+        <v>166529.3067522364</v>
       </c>
       <c r="K6" t="n">
-        <v>144491.5965789235</v>
+        <v>132273.585958883</v>
       </c>
       <c r="L6" t="n">
-        <v>192748.5495125561</v>
+        <v>180530.5388925157</v>
       </c>
       <c r="M6" t="n">
-        <v>192748.5495125561</v>
+        <v>180530.5388925157</v>
       </c>
       <c r="N6" t="n">
-        <v>192748.5495125561</v>
+        <v>180530.5388925157</v>
       </c>
       <c r="O6" t="n">
-        <v>192748.5495125562</v>
+        <v>180530.5388925157</v>
       </c>
       <c r="P6" t="n">
-        <v>192748.5495125561</v>
+        <v>180530.5388925157</v>
       </c>
     </row>
   </sheetData>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>353.3635167317617</v>
+        <v>396.9849362740401</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>156.9633605604562</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27423,13 +27423,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>96.35658893119992</v>
       </c>
       <c r="S2" t="n">
-        <v>155.5075405762956</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27438,10 +27438,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>307.8704497879187</v>
+        <v>274.2397294601852</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>295.7284397074633</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27457,22 +27457,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113.0206546399176</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>119.195969978366</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>110.5112449034372</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>91.55668338343412</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>90.95627293750474</v>
       </c>
       <c r="H3" t="n">
         <v>58.72291522654671</v>
@@ -27481,7 +27481,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27523,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>152.2604561935277</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27560,10 +27560,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>92.18820311219361</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>62.72157442133235</v>
+        <v>32.64951424174463</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>123.7808623672197</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>233.0104693266412</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>172.1971263790874</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>301.251446211517</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27660,16 +27660,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>30.86275655426235</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27697,25 +27697,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>127.4196248553433</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27757,13 +27757,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>159.0804167878998</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>123.8600405104216</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>176.9916737032986</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27867,16 +27867,16 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>331.7898455187701</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>251.6582601192213</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27946,10 +27946,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>14.75355855760485</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -27982,25 +27982,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>100.4169029901996</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28028,7 +28028,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -28055,7 +28055,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>239.4980740029173</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>51.35040662570935</v>
+      </c>
+      <c r="L2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="L2" t="n">
-        <v>51.35040662570935</v>
-      </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>51.35040662570935</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,7 +34950,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
@@ -35026,16 +35026,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,7 +35187,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35269,7 +35269,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35418,7 +35418,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
         <v>207.9338608153932</v>
@@ -35491,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>91.0829537758999</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
@@ -35506,10 +35506,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35658,7 +35658,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35734,16 +35734,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>113.3808631277495</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
@@ -35974,16 +35974,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36211,7 +36211,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36220,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,22 +36679,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N27" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O27" t="n">
-        <v>91.0829537758999</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>169.9091475161414</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -37153,16 +37153,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O33" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37317,7 +37317,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37396,10 +37396,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>55.51629994036219</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38107,10 +38107,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
